--- a/uploads/update_eo_data.xlsx
+++ b/uploads/update_eo_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24090" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="update_eo_data" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
   <si>
     <t>eo_code</t>
   </si>
   <si>
-    <t>head_type</t>
-  </si>
-  <si>
-    <t>eo_model_id</t>
-  </si>
-  <si>
-    <t>head</t>
+    <t>eo_class_code</t>
   </si>
   <si>
     <t>100000065576</t>
   </si>
   <si>
+    <t>100000065584</t>
+  </si>
+  <si>
+    <t>100000065583</t>
+  </si>
+  <si>
+    <t>100000065578</t>
+  </si>
+  <si>
+    <t>100000065577</t>
+  </si>
+  <si>
+    <t>100000065580</t>
+  </si>
+  <si>
+    <t>100000065579</t>
+  </si>
+  <si>
+    <t>100000062367</t>
+  </si>
+  <si>
+    <t>100000062368</t>
+  </si>
+  <si>
+    <t>100000062375</t>
+  </si>
+  <si>
+    <t>100000062374</t>
+  </si>
+  <si>
+    <t>100000062378</t>
+  </si>
+  <si>
+    <t>100000065973</t>
+  </si>
+  <si>
+    <t>100000065593</t>
+  </si>
+  <si>
+    <t>100000065597</t>
+  </si>
+  <si>
+    <t>100000055509</t>
+  </si>
+  <si>
+    <t>100000055510</t>
+  </si>
+  <si>
+    <t>100000055511</t>
+  </si>
+  <si>
+    <t>100000055512</t>
+  </si>
+  <si>
+    <t>100000055513</t>
+  </si>
+  <si>
+    <t>100000065553</t>
+  </si>
+  <si>
+    <t>100000065550</t>
+  </si>
+  <si>
+    <t>100000065551</t>
+  </si>
+  <si>
+    <t>100000065554</t>
+  </si>
+  <si>
+    <t>100000065556</t>
+  </si>
+  <si>
+    <t>100000065552</t>
+  </si>
+  <si>
+    <t>100000065555</t>
+  </si>
+  <si>
+    <t>100000065557</t>
+  </si>
+  <si>
+    <t>100000065560</t>
+  </si>
+  <si>
+    <t>100000065561</t>
+  </si>
+  <si>
+    <t>100000065558</t>
+  </si>
+  <si>
     <t>100000065504</t>
   </si>
   <si>
@@ -60,6 +144,12 @@
     <t>100000065501</t>
   </si>
   <si>
+    <t>100000065503</t>
+  </si>
+  <si>
+    <t>100000065502</t>
+  </si>
+  <si>
     <t>100000065590</t>
   </si>
   <si>
@@ -109,13 +199,82 @@
   </si>
   <si>
     <t>100000062731</t>
+  </si>
+  <si>
+    <t>100000009183</t>
+  </si>
+  <si>
+    <t>100000073825</t>
+  </si>
+  <si>
+    <t>100000007091</t>
+  </si>
+  <si>
+    <t>100000073796</t>
+  </si>
+  <si>
+    <t>100000081472</t>
+  </si>
+  <si>
+    <t>100000081473</t>
+  </si>
+  <si>
+    <t>100000081483</t>
+  </si>
+  <si>
+    <t>100000083412</t>
+  </si>
+  <si>
+    <t>100000083413</t>
+  </si>
+  <si>
+    <t>100000095664</t>
+  </si>
+  <si>
+    <t>100000095766</t>
+  </si>
+  <si>
+    <t>100000095767</t>
+  </si>
+  <si>
+    <t>100000095768</t>
+  </si>
+  <si>
+    <t>100000095769</t>
+  </si>
+  <si>
+    <t>E01_01</t>
+  </si>
+  <si>
+    <t>E05_02</t>
+  </si>
+  <si>
+    <t>E17_09</t>
+  </si>
+  <si>
+    <t>E05_01</t>
+  </si>
+  <si>
+    <t>E06_01</t>
+  </si>
+  <si>
+    <t>E06_02</t>
+  </si>
+  <si>
+    <t>E03_01</t>
+  </si>
+  <si>
+    <t>E01_04</t>
+  </si>
+  <si>
+    <t>E17_11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +289,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,15 +329,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -473,292 +650,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C27"/>
+      <selection activeCell="B2" sqref="B2:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
+      <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>107</v>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/update_eo_data.xlsx
+++ b/uploads/update_eo_data.xlsx
@@ -5,53 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Desktop\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="8550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22755" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="update_eo_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>eo_code</t>
   </si>
   <si>
-    <t>head_type</t>
-  </si>
-  <si>
     <t>eo_model_id</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>100000058932</t>
-  </si>
-  <si>
-    <t>100000058919</t>
-  </si>
-  <si>
-    <t>100000059049</t>
-  </si>
-  <si>
-    <t>100000059050</t>
-  </si>
-  <si>
-    <t>100000055021</t>
-  </si>
-  <si>
-    <t>100000065944</t>
-  </si>
-  <si>
-    <t>100000065918</t>
   </si>
 </sst>
 </file>
@@ -117,12 +90,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -425,105 +399,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>151</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>100000026789</v>
+      </c>
+      <c r="B2" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>100000062742</v>
+      </c>
+      <c r="B3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>100000065965</v>
+      </c>
+      <c r="B4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>100000068270</v>
+      </c>
+      <c r="B5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>100000062368</v>
+      </c>
+      <c r="B6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>100000065502</v>
+      </c>
+      <c r="B7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>100000065503</v>
+      </c>
+      <c r="B8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>100000055015</v>
+      </c>
+      <c r="B9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>100000055036</v>
+      </c>
+      <c r="B10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>100000065966</v>
+      </c>
+      <c r="B11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>100000069383</v>
+      </c>
+      <c r="B12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>100000062752</v>
+      </c>
+      <c r="B13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>100000063334</v>
+      </c>
+      <c r="B14">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
